--- a/arxiv_paper_df_by_theme_revised.xlsx
+++ b/arxiv_paper_df_by_theme_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DA57A-94B3-449B-9CB1-070E5D2D08F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAE460-79B5-4835-BCC7-42FA16E07DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="491">
   <si>
     <t>Title</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Convolutional Neural Networks for Sentence Classification</t>
   </si>
   <si>
-    <t>Convolutional Neural Networks using Logarithmic Data Representation</t>
-  </si>
-  <si>
     <t>Permutation Invariant Training of Deep Models for Speaker-Independent Multi-talker Speech Separation</t>
   </si>
   <si>
@@ -724,9 +721,6 @@
     <t>Yoon Kim et al</t>
   </si>
   <si>
-    <t>Daisuke Miyashita et al</t>
-  </si>
-  <si>
     <t>Dong Yu et al</t>
   </si>
   <si>
@@ -1099,9 +1093,6 @@
     <t>[Link](http://arxiv.org/abs/1408.5882v2)</t>
   </si>
   <si>
-    <t>[Link](http://arxiv.org/abs/1603.01025v2)</t>
-  </si>
-  <si>
     <t>[Link](http://arxiv.org/abs/1607.00325v2)</t>
   </si>
   <si>
@@ -1499,6 +1490,9 @@
   </si>
   <si>
     <t>[Link](http://arxiv.org/abs/2012.12877v2)</t>
+  </si>
+  <si>
+    <t>[Link](https://www.cs.toronto.edu/~rsalakhu/papers/srivastava14a.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ "/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1565,10 +1559,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1873,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1904,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -1920,20 +1914,20 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="3">
+        <v>158</v>
+      </c>
+      <c r="E2" s="2">
         <v>41640</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1941,56 +1935,59 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="3">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2">
         <v>41876</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3">
-        <v>42432</v>
+      <c r="E4" s="2">
+        <v>42552</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3">
-        <v>42552</v>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42894</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2000,18 +1997,18 @@
       <c r="D6" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="3">
-        <v>42894</v>
+      <c r="E6" s="2">
+        <v>43040</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -2021,57 +2018,59 @@
       <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="3">
-        <v>43040</v>
+      <c r="E7" s="2">
+        <v>43185</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43185</v>
+      <c r="E8" s="2">
+        <v>43539</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3">
-        <v>43539</v>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44133</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -2081,136 +2080,134 @@
       <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="3">
-        <v>44133</v>
+      <c r="E10" s="2">
+        <v>37438</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3">
-        <v>37438</v>
+      <c r="E11" s="2">
+        <v>43210</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3">
-        <v>43210</v>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44470</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="3">
-        <v>44470</v>
+      <c r="E13" s="2">
+        <v>41290</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
-        <v>41290</v>
+      <c r="E14" s="2">
+        <v>41426</v>
       </c>
       <c r="F14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3">
-        <v>41426</v>
+      <c r="E15" s="2">
+        <v>43176</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3">
-        <v>43176</v>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43331</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -2220,18 +2217,18 @@
       <c r="D17" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="3">
-        <v>43331</v>
+      <c r="E17" s="2">
+        <v>43704</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -2241,18 +2238,18 @@
       <c r="D18" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="3">
-        <v>43704</v>
+      <c r="E18" s="2">
+        <v>44304</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -2262,59 +2259,59 @@
       <c r="D19" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="3">
-        <v>44304</v>
+      <c r="E19" s="2">
+        <v>44350</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="3">
-        <v>44350</v>
+      <c r="E20" s="2">
+        <v>45070</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="3">
-        <v>45070</v>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="2">
+        <v>42461</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -2324,18 +2321,18 @@
       <c r="D22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="3">
-        <v>42461</v>
+      <c r="E22" s="2">
+        <v>43628</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -2345,57 +2342,59 @@
       <c r="D23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="3">
-        <v>43628</v>
+      <c r="E23" s="2">
+        <v>43990</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="3">
-        <v>43990</v>
+      <c r="E24" s="2">
+        <v>44054</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="3">
-        <v>44054</v>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44470</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -2405,20 +2404,18 @@
       <c r="D26" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="3">
-        <v>44470</v>
+      <c r="E26" s="2">
+        <v>39177</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -2428,18 +2425,18 @@
       <c r="D27" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="3">
-        <v>39177</v>
+      <c r="E27" s="2">
+        <v>41883</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -2449,282 +2446,282 @@
       <c r="D28" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="3">
-        <v>41883</v>
+      <c r="E28" s="2">
+        <v>41892</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="3">
-        <v>41892</v>
+      <c r="E29" s="2">
+        <v>42256</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="3">
-        <v>42256</v>
+      <c r="E30" s="2">
+        <v>42370</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="3">
-        <v>42370</v>
+      <c r="E31" s="2">
+        <v>42639</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="3">
-        <v>42639</v>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="2">
+        <v>42854</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="3">
-        <v>42854</v>
+      <c r="E33" s="2">
+        <v>42881</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="3">
-        <v>42881</v>
+      <c r="E34" s="2">
+        <v>42898</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="3">
-        <v>42898</v>
+      <c r="E35" s="2">
+        <v>42939</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="3">
-        <v>42939</v>
+      <c r="E36" s="2">
+        <v>43146</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="3">
-        <v>43146</v>
+      <c r="E37" s="2">
+        <v>43191</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="3">
-        <v>43191</v>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43262</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="3">
-        <v>43262</v>
+      <c r="E39" s="2">
+        <v>43384</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="3">
-        <v>43384</v>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43617</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3">
-        <v>43617</v>
+      <c r="E41" s="2">
+        <v>43670</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="3">
-        <v>43670</v>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43721</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -2734,96 +2731,96 @@
       <c r="D43" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="3">
-        <v>43721</v>
+      <c r="E43" s="2">
+        <v>43761</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="D44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="3">
-        <v>43761</v>
+      <c r="E44" s="2">
+        <v>43767</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="3">
-        <v>43767</v>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43831</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="D46" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="3">
-        <v>43831</v>
+      <c r="E46" s="2">
+        <v>43938</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="3">
-        <v>43938</v>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44442</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -2833,18 +2830,18 @@
       <c r="D48" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="3">
-        <v>44442</v>
+      <c r="E48" s="2">
+        <v>44562</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -2854,18 +2851,18 @@
       <c r="D49" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="3">
-        <v>44562</v>
+      <c r="E49" s="2">
+        <v>44667</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -2873,20 +2870,20 @@
         <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="3">
-        <v>44667</v>
+        <v>185</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44842</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -2896,18 +2893,18 @@
       <c r="D51" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="3">
-        <v>44842</v>
+      <c r="E51" s="2">
+        <v>44894</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -2917,18 +2914,18 @@
       <c r="D52" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="3">
-        <v>44894</v>
+      <c r="E52" s="2">
+        <v>44915</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -2938,57 +2935,57 @@
       <c r="D53" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="3">
-        <v>44915</v>
+      <c r="E53" s="2">
+        <v>44927</v>
       </c>
       <c r="F53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
       </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="3">
-        <v>44927</v>
+      <c r="E54" s="2">
+        <v>44984</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="3">
-        <v>44984</v>
+      <c r="D55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45022</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G55" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -2996,61 +2993,61 @@
         <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="3">
-        <v>45022</v>
+        <v>187</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45072</v>
       </c>
       <c r="F56" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>78</v>
       </c>
-      <c r="D57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="3">
-        <v>45072</v>
+      <c r="E57" s="2">
+        <v>45073</v>
       </c>
       <c r="F57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G57" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B58" s="1">
         <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="3">
-        <v>45073</v>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="2">
+        <v>39234</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -3060,18 +3057,20 @@
       <c r="D59" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="3">
-        <v>39234</v>
+      <c r="E59" s="2">
+        <v>42247</v>
       </c>
       <c r="F59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -3081,20 +3080,18 @@
       <c r="D60" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="3">
-        <v>42247</v>
+      <c r="E60" s="2">
+        <v>42803</v>
       </c>
       <c r="F60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -3104,58 +3101,57 @@
       <c r="D61" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="3">
-        <v>42803</v>
+      <c r="E61" s="2">
+        <v>42938</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
       </c>
-      <c r="D62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="3">
-        <v>42938</v>
+      <c r="E62" s="2">
+        <v>44355</v>
       </c>
       <c r="F62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B63" s="1">
         <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="3">
-        <v>44355</v>
+      <c r="E63" s="2">
+        <v>42706</v>
       </c>
       <c r="F63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -3163,19 +3159,22 @@
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="3">
-        <v>42706</v>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="2">
+        <v>33298</v>
       </c>
       <c r="F64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G64" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -3183,64 +3182,62 @@
       <c r="C65" t="s">
         <v>86</v>
       </c>
-      <c r="D65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="3">
-        <v>33298</v>
+      <c r="E65" s="2">
+        <v>44292</v>
       </c>
       <c r="F65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G65" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>15</v>
+      <c r="A66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="3">
-        <v>44292</v>
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="2">
+        <v>38949</v>
       </c>
       <c r="F66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="3">
-        <v>38949</v>
+      <c r="E67" s="2">
+        <v>42458</v>
       </c>
       <c r="F67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G67" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -3250,18 +3247,18 @@
       <c r="D68" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="3">
-        <v>42458</v>
+      <c r="E68" s="2">
+        <v>43926</v>
       </c>
       <c r="F68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -3269,20 +3266,22 @@
         <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="3">
-        <v>43926</v>
+        <v>173</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44607</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G69" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -3290,22 +3289,20 @@
         <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="3">
-        <v>44607</v>
+        <v>198</v>
+      </c>
+      <c r="E70" s="2">
+        <v>42072</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -3315,57 +3312,57 @@
       <c r="D71" t="s">
         <v>199</v>
       </c>
-      <c r="E71" s="3">
-        <v>42072</v>
+      <c r="E71" s="2">
+        <v>43505</v>
       </c>
       <c r="F71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>92</v>
       </c>
-      <c r="D72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>43505</v>
+      <c r="E72" s="2">
+        <v>43593</v>
       </c>
       <c r="F72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G72" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="3">
-        <v>43593</v>
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43702</v>
       </c>
       <c r="F73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G73" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -3375,75 +3372,77 @@
       <c r="D74" t="s">
         <v>201</v>
       </c>
-      <c r="E74" s="3">
-        <v>43702</v>
+      <c r="E74" s="2">
+        <v>43740</v>
       </c>
       <c r="F74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>95</v>
       </c>
-      <c r="D75" t="s">
-        <v>202</v>
-      </c>
-      <c r="E75" s="3">
-        <v>43740</v>
+      <c r="E75" s="2">
+        <v>43797</v>
       </c>
       <c r="F75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G75" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="3">
-        <v>43797</v>
+      <c r="E76" s="2">
+        <v>43886</v>
       </c>
       <c r="F76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G76" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>97</v>
       </c>
-      <c r="E77" s="3">
-        <v>43886</v>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44196</v>
       </c>
       <c r="F77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G77" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -3451,118 +3450,116 @@
         <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="3">
-        <v>44196</v>
+        <v>202</v>
+      </c>
+      <c r="E78" s="2">
+        <v>41501</v>
       </c>
       <c r="F78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G78" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>99</v>
       </c>
-      <c r="D79" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="3">
-        <v>41501</v>
+      <c r="E79" s="2">
+        <v>42445</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G79" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="3">
-        <v>42445</v>
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="2">
+        <v>42541</v>
       </c>
       <c r="F80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>101</v>
       </c>
-      <c r="D81" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="3">
-        <v>42541</v>
+      <c r="E81" s="2">
+        <v>42635</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G81" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="3">
-        <v>42635</v>
+      <c r="E82" s="2">
+        <v>43084</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="3">
-        <v>43084</v>
+      <c r="D83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43425</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G83" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -3572,111 +3569,111 @@
       <c r="D84" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="3">
-        <v>43425</v>
+      <c r="E84" s="2">
+        <v>43658</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G84" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
       </c>
-      <c r="D85" t="s">
-        <v>206</v>
-      </c>
-      <c r="E85" s="3">
-        <v>43658</v>
+      <c r="E85" s="2">
+        <v>43720</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G85" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="3">
-        <v>43720</v>
+      <c r="E86" s="2">
+        <v>43790</v>
       </c>
       <c r="F86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="3">
-        <v>43790</v>
+      <c r="E87" s="2">
+        <v>43897</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>108</v>
       </c>
-      <c r="E88" s="3">
-        <v>43897</v>
+      <c r="E88" s="2">
+        <v>43921</v>
       </c>
       <c r="F88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G88" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="3">
-        <v>43921</v>
+      <c r="D89" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="2">
+        <v>43941</v>
       </c>
       <c r="F89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -3686,18 +3683,18 @@
       <c r="D90" t="s">
         <v>207</v>
       </c>
-      <c r="E90" s="3">
-        <v>43941</v>
+      <c r="E90" s="2">
+        <v>44196</v>
       </c>
       <c r="F90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G90" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -3707,18 +3704,18 @@
       <c r="D91" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="3">
-        <v>44196</v>
+      <c r="E91" s="2">
+        <v>44201</v>
       </c>
       <c r="F91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G91" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -3728,18 +3725,18 @@
       <c r="D92" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="3">
-        <v>44201</v>
+      <c r="E92" s="2">
+        <v>44280</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -3747,59 +3744,59 @@
         <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" s="3">
-        <v>44280</v>
+        <v>173</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44362</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G93" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>114</v>
       </c>
-      <c r="D94" t="s">
-        <v>174</v>
-      </c>
-      <c r="E94" s="3">
-        <v>44362</v>
+      <c r="E94" s="2">
+        <v>44632</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="3">
-        <v>44632</v>
+      <c r="D95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44641</v>
       </c>
       <c r="F95" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G95" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>95</v>
       </c>
@@ -3809,18 +3806,18 @@
       <c r="D96" t="s">
         <v>211</v>
       </c>
-      <c r="E96" s="3">
-        <v>44641</v>
+      <c r="E96" s="2">
+        <v>44706</v>
       </c>
       <c r="F96" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -3830,18 +3827,18 @@
       <c r="D97" t="s">
         <v>212</v>
       </c>
-      <c r="E97" s="3">
-        <v>44706</v>
+      <c r="E97" s="2">
+        <v>44716</v>
       </c>
       <c r="F97" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>97</v>
       </c>
@@ -3849,20 +3846,20 @@
         <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" s="3">
-        <v>44716</v>
+        <v>212</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44831</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G98" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>98</v>
       </c>
@@ -3872,154 +3869,153 @@
       <c r="D99" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="3">
-        <v>44831</v>
+      <c r="E99" s="2">
+        <v>44953</v>
       </c>
       <c r="F99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G99" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>120</v>
       </c>
-      <c r="D100" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="3">
-        <v>44953</v>
+      <c r="E100" s="2">
+        <v>44961</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G100" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="3">
-        <v>44961</v>
+      <c r="D101" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45034</v>
       </c>
       <c r="F101" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G101" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1">
         <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>122</v>
       </c>
-      <c r="D102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E102" s="3">
-        <v>45034</v>
+      <c r="E102" s="2">
+        <v>45064</v>
       </c>
       <c r="F102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="1">
         <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="3">
-        <v>45064</v>
+      <c r="E103" s="2">
+        <v>45069</v>
       </c>
       <c r="F103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G103" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="1">
         <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="3">
+      <c r="D104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="2">
         <v>45069</v>
       </c>
       <c r="F104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>125</v>
       </c>
-      <c r="D105" t="s">
-        <v>190</v>
-      </c>
-      <c r="E105" s="3">
-        <v>45069</v>
+      <c r="E105" s="2">
+        <v>45075</v>
       </c>
       <c r="F105" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G105" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>126</v>
       </c>
-      <c r="E106" s="3">
-        <v>45075</v>
+      <c r="E106" s="2">
+        <v>42984</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G106" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>19</v>
+      <c r="A107" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -4027,59 +4023,60 @@
       <c r="C107" t="s">
         <v>127</v>
       </c>
-      <c r="E107" s="3">
-        <v>42984</v>
+      <c r="D107" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="2">
+        <v>41627</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G107" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>128</v>
       </c>
-      <c r="D108" t="s">
-        <v>216</v>
-      </c>
-      <c r="E108" s="3">
-        <v>41627</v>
+      <c r="E108" s="2">
+        <v>42936</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="1">
         <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="3">
-        <v>42936</v>
+      <c r="D109" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="2">
+        <v>43014</v>
       </c>
       <c r="F109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G109" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="1">
         <v>109</v>
       </c>
@@ -4089,18 +4086,18 @@
       <c r="D110" t="s">
         <v>217</v>
       </c>
-      <c r="E110" s="3">
-        <v>43014</v>
+      <c r="E110" s="2">
+        <v>43070</v>
       </c>
       <c r="F110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G110" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="1">
         <v>110</v>
       </c>
@@ -4110,114 +4107,114 @@
       <c r="D111" t="s">
         <v>218</v>
       </c>
-      <c r="E111" s="3">
-        <v>43070</v>
+      <c r="E111" s="2">
+        <v>43157</v>
       </c>
       <c r="F111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G111" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="1">
         <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>132</v>
       </c>
-      <c r="D112" t="s">
-        <v>219</v>
-      </c>
-      <c r="E112" s="3">
-        <v>43157</v>
+      <c r="E112" s="2">
+        <v>43929</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G112" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="1">
         <v>112</v>
       </c>
       <c r="C113" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="3">
-        <v>43929</v>
+      <c r="D113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44078</v>
       </c>
       <c r="F113" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G113" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="1">
         <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>134</v>
       </c>
-      <c r="D114" t="s">
-        <v>220</v>
-      </c>
-      <c r="E114" s="3">
-        <v>44078</v>
+      <c r="E114" s="2">
+        <v>44462</v>
       </c>
       <c r="F114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G114" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="1">
         <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>135</v>
       </c>
-      <c r="E115" s="3">
-        <v>44462</v>
+      <c r="E115" s="2">
+        <v>44481</v>
       </c>
       <c r="F115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G115" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="1">
         <v>115</v>
       </c>
       <c r="C116" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="3">
-        <v>44481</v>
+      <c r="D116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44562</v>
       </c>
       <c r="F116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="3"/>
       <c r="B117" s="1">
         <v>116</v>
       </c>
@@ -4225,20 +4222,20 @@
         <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>221</v>
-      </c>
-      <c r="E117" s="3">
-        <v>44562</v>
+        <v>212</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44713</v>
       </c>
       <c r="F117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G117" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -4246,20 +4243,20 @@
         <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>213</v>
-      </c>
-      <c r="E118" s="3">
-        <v>44713</v>
+        <v>212</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44797</v>
       </c>
       <c r="F118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G118" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="1">
         <v>118</v>
       </c>
@@ -4267,20 +4264,22 @@
         <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>213</v>
-      </c>
-      <c r="E119" s="3">
-        <v>44797</v>
+        <v>221</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44951</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G119" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B120" s="1">
         <v>119</v>
       </c>
@@ -4290,20 +4289,18 @@
       <c r="D120" t="s">
         <v>222</v>
       </c>
-      <c r="E120" s="3">
-        <v>44951</v>
+      <c r="E120" s="2">
+        <v>43466</v>
       </c>
       <c r="F120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G120" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A121" s="3"/>
       <c r="B121" s="1">
         <v>120</v>
       </c>
@@ -4313,18 +4310,18 @@
       <c r="D121" t="s">
         <v>223</v>
       </c>
-      <c r="E121" s="3">
-        <v>43466</v>
+      <c r="E121" s="2">
+        <v>43514</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G121" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="1">
         <v>121</v>
       </c>
@@ -4332,20 +4329,20 @@
         <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
-      </c>
-      <c r="E122" s="3">
-        <v>43514</v>
+        <v>223</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43517</v>
       </c>
       <c r="F122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G122" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="1">
         <v>122</v>
       </c>
@@ -4353,20 +4350,20 @@
         <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>224</v>
-      </c>
-      <c r="E123" s="3">
-        <v>43517</v>
+        <v>180</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43566</v>
       </c>
       <c r="F123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G123" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="1">
         <v>123</v>
       </c>
@@ -4374,20 +4371,20 @@
         <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>181</v>
-      </c>
-      <c r="E124" s="3">
-        <v>43566</v>
+        <v>224</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43609</v>
       </c>
       <c r="F124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G124" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="1">
         <v>124</v>
       </c>
@@ -4395,20 +4392,20 @@
         <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
-      </c>
-      <c r="E125" s="3">
-        <v>43609</v>
+        <v>181</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43935</v>
       </c>
       <c r="F125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G125" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="1">
         <v>125</v>
       </c>
@@ -4416,20 +4413,20 @@
         <v>146</v>
       </c>
       <c r="D126" t="s">
-        <v>182</v>
-      </c>
-      <c r="E126" s="3">
-        <v>43935</v>
+        <v>206</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43983</v>
       </c>
       <c r="F126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G126" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="1">
         <v>126</v>
       </c>
@@ -4437,20 +4434,20 @@
         <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
-      </c>
-      <c r="E127" s="3">
-        <v>43983</v>
+        <v>225</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44033</v>
       </c>
       <c r="F127" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G127" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="1">
         <v>127</v>
       </c>
@@ -4460,152 +4457,152 @@
       <c r="D128" t="s">
         <v>226</v>
       </c>
-      <c r="E128" s="3">
-        <v>44033</v>
+      <c r="E128" s="2">
+        <v>44044</v>
       </c>
       <c r="F128" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G128" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="1">
         <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>149</v>
       </c>
-      <c r="D129" t="s">
-        <v>227</v>
-      </c>
-      <c r="E129" s="3">
-        <v>44044</v>
+      <c r="E129" s="2">
+        <v>44262</v>
       </c>
       <c r="F129" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G129" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B130" s="1">
         <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>150</v>
       </c>
-      <c r="E130" s="3">
-        <v>44262</v>
+      <c r="E130" s="2">
+        <v>41628</v>
       </c>
       <c r="F130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G130" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A131" s="3"/>
       <c r="B131" s="1">
         <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="3">
-        <v>41628</v>
+      <c r="E131" s="2">
+        <v>42045</v>
       </c>
       <c r="F131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G131" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="1">
         <v>131</v>
       </c>
       <c r="C132" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="3">
-        <v>42045</v>
+      <c r="E132" s="2">
+        <v>42533</v>
       </c>
       <c r="F132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G132" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="1">
         <v>132</v>
       </c>
       <c r="C133" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="3">
-        <v>42533</v>
+      <c r="D133" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43055</v>
       </c>
       <c r="F133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G133" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="1">
         <v>133</v>
       </c>
       <c r="C134" t="s">
         <v>154</v>
       </c>
-      <c r="D134" t="s">
-        <v>228</v>
-      </c>
-      <c r="E134" s="3">
-        <v>43055</v>
+      <c r="E134" s="2">
+        <v>43252</v>
       </c>
       <c r="F134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G134" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="1">
         <v>134</v>
       </c>
       <c r="C135" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="3">
-        <v>43252</v>
+      <c r="D135" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" s="2">
+        <v>43397</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G135" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="1">
         <v>135</v>
       </c>
@@ -4615,18 +4612,18 @@
       <c r="D136" t="s">
         <v>229</v>
       </c>
-      <c r="E136" s="3">
-        <v>43397</v>
+      <c r="E136" s="2">
+        <v>44126</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G136" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="1">
         <v>136</v>
       </c>
@@ -4636,52 +4633,31 @@
       <c r="D137" t="s">
         <v>230</v>
       </c>
-      <c r="E137" s="3">
-        <v>44126</v>
+      <c r="E137" s="2">
+        <v>44188</v>
       </c>
       <c r="F137" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="G137" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="1">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>158</v>
-      </c>
-      <c r="D138" t="s">
-        <v>231</v>
-      </c>
-      <c r="E138" s="3">
-        <v>44188</v>
-      </c>
-      <c r="F138" t="s">
-        <v>283</v>
-      </c>
-      <c r="G138" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A79:A106"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A58"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A57"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arxiv_paper_df_by_theme_revised.xlsx
+++ b/arxiv_paper_df_by_theme_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinSeok\Downloads\awesome-ai-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAE460-79B5-4835-BCC7-42FA16E07DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25125DB9-6FE8-4B86-96F1-12A5B9783DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2790" windowWidth="18840" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,16 +3585,19 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>223</v>
       </c>
       <c r="E85" s="2">
-        <v>43720</v>
+        <v>43517</v>
       </c>
       <c r="F85" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="G85" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,16 +3606,16 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2">
-        <v>43790</v>
+        <v>43720</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3621,16 +3624,16 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2">
-        <v>43897</v>
+        <v>43790</v>
       </c>
       <c r="F87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3639,16 +3642,16 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2">
-        <v>43921</v>
+        <v>43897</v>
       </c>
       <c r="F88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,19 +3660,16 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
-      </c>
-      <c r="D89" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2">
-        <v>43941</v>
+        <v>43921</v>
       </c>
       <c r="F89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3678,19 +3678,19 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" s="2">
-        <v>44196</v>
+        <v>43941</v>
       </c>
       <c r="F90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,19 +3699,19 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E91" s="2">
-        <v>44201</v>
+        <v>44196</v>
       </c>
       <c r="F91" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3720,19 +3720,19 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="2">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="F92" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,19 +3741,19 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="E93" s="2">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="F93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,16 +3762,19 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
       </c>
       <c r="E94" s="2">
-        <v>44632</v>
+        <v>44362</v>
       </c>
       <c r="F94" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,19 +3783,16 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2">
-        <v>44641</v>
+        <v>44632</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,19 +3801,19 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E96" s="2">
-        <v>44706</v>
+        <v>44641</v>
       </c>
       <c r="F96" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3822,19 +3822,19 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E97" s="2">
-        <v>44716</v>
+        <v>44706</v>
       </c>
       <c r="F97" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,19 +3843,19 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D98" t="s">
         <v>212</v>
       </c>
       <c r="E98" s="2">
-        <v>44831</v>
+        <v>44716</v>
       </c>
       <c r="F98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3864,19 +3864,19 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E99" s="2">
-        <v>44953</v>
+        <v>44831</v>
       </c>
       <c r="F99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,16 +3885,19 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>213</v>
       </c>
       <c r="E100" s="2">
-        <v>44961</v>
+        <v>44953</v>
       </c>
       <c r="F100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3903,19 +3906,16 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2">
-        <v>45034</v>
+        <v>44961</v>
       </c>
       <c r="F101" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,16 +3924,19 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>214</v>
       </c>
       <c r="E102" s="2">
-        <v>45064</v>
+        <v>45034</v>
       </c>
       <c r="F102" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,16 +3945,16 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2">
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="F103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3960,19 +3963,16 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
-      </c>
-      <c r="D104" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2">
         <v>45069</v>
       </c>
       <c r="F104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3981,77 +3981,80 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="D105" t="s">
+        <v>189</v>
       </c>
       <c r="E105" s="2">
-        <v>45075</v>
+        <v>45069</v>
       </c>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G105" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2">
-        <v>42984</v>
+        <v>45075</v>
       </c>
       <c r="F106" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G106" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>20</v>
+      <c r="A107" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2">
-        <v>41627</v>
+        <v>42984</v>
       </c>
       <c r="F107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G107" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
       </c>
       <c r="E108" s="2">
-        <v>42936</v>
+        <v>41627</v>
       </c>
       <c r="F108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G108" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4060,19 +4063,16 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2">
-        <v>43014</v>
+        <v>42936</v>
       </c>
       <c r="F109" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4081,19 +4081,19 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E110" s="2">
-        <v>43070</v>
+        <v>43014</v>
       </c>
       <c r="F110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4102,19 +4102,19 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E111" s="2">
-        <v>43157</v>
+        <v>43070</v>
       </c>
       <c r="F111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4123,16 +4123,19 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D112" t="s">
+        <v>218</v>
       </c>
       <c r="E112" s="2">
-        <v>43929</v>
+        <v>43157</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G112" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,19 +4144,16 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2">
-        <v>44078</v>
+        <v>43929</v>
       </c>
       <c r="F113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,16 +4162,19 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="D114" t="s">
+        <v>219</v>
       </c>
       <c r="E114" s="2">
-        <v>44462</v>
+        <v>44078</v>
       </c>
       <c r="F114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G114" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,16 +4183,16 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2">
-        <v>44481</v>
+        <v>44462</v>
       </c>
       <c r="F115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G115" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4198,19 +4201,16 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2">
-        <v>44562</v>
+        <v>44481</v>
       </c>
       <c r="F116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G116" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,19 +4219,19 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E117" s="2">
-        <v>44713</v>
+        <v>44562</v>
       </c>
       <c r="F117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G117" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4240,19 +4240,19 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
         <v>212</v>
       </c>
       <c r="E118" s="2">
-        <v>44797</v>
+        <v>44713</v>
       </c>
       <c r="F118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4261,63 +4261,63 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E119" s="2">
-        <v>44951</v>
+        <v>44797</v>
       </c>
       <c r="F119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A120" s="3"/>
       <c r="B120" s="1">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E120" s="2">
-        <v>43466</v>
+        <v>44951</v>
       </c>
       <c r="F120" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B121" s="1">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E121" s="2">
-        <v>43514</v>
+        <v>43466</v>
       </c>
       <c r="F121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G121" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,19 +4326,19 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
         <v>223</v>
       </c>
       <c r="E122" s="2">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="F122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G122" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4645,19 +4645,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A78:A106"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A26:A57"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A120:A129"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="A78:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
